--- a/$IBM.xlsx
+++ b/$IBM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99229A57-1DB2-4905-B917-49C747B17060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486FAF5-6096-4EEF-B13D-E80D6488104C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{85ED5A08-D60F-4D3D-80D1-1AAE2F03FFA2}"/>
   </bookViews>
@@ -1038,10 +1038,10 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,15 +2115,123 @@
       <c r="B34" t="s">
         <v>47</v>
       </c>
+      <c r="C34" s="28">
+        <f t="shared" ref="C34:K34" si="23">C18/C6</f>
+        <v>1.9464997154240181E-2</v>
+      </c>
+      <c r="D34" s="28">
+        <f t="shared" si="23"/>
+        <v>0.10312862108922363</v>
+      </c>
+      <c r="E34" s="28">
+        <f t="shared" si="23"/>
+        <v>0.12920676499060418</v>
+      </c>
+      <c r="F34" s="28">
+        <f t="shared" si="23"/>
+        <v>8.2486375018412134E-2</v>
+      </c>
+      <c r="G34" s="28">
+        <f t="shared" si="23"/>
+        <v>7.8966664786507976E-2</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" si="23"/>
+        <v>0.10738863696985863</v>
+      </c>
+      <c r="I34" s="28">
+        <f t="shared" si="23"/>
+        <v>9.5867862413440794E-2</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="23"/>
+        <v>0.35317582080392756</v>
+      </c>
+      <c r="K34" s="28">
+        <f>K18/K6</f>
+        <v>7.4593223920546597E-2</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
+      <c r="C35" s="28">
+        <f t="shared" ref="C35:K35" si="24">C24/C6</f>
+        <v>6.6875355719977228E-2</v>
+      </c>
+      <c r="D35" s="28">
+        <f t="shared" si="24"/>
+        <v>7.5042763339402963E-2</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="24"/>
+        <v>9.6634588007516661E-2</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="24"/>
+        <v>6.6529189374969308E-2</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="24"/>
+        <v>5.38665463365108E-2</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="24"/>
+        <v>7.0685516137636697E-2</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="24"/>
+        <v>6.408218867067772E-2</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="24"/>
+        <v>0.39981589444614912</v>
+      </c>
+      <c r="K35" s="28">
+        <f>K24/K6</f>
+        <v>5.1630626188631401E-2</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>50</v>
+      </c>
+      <c r="C36" s="28">
+        <f t="shared" ref="C36:K36" si="25">C21/C20</f>
+        <v>24.52</v>
+      </c>
+      <c r="D36" s="28">
+        <f t="shared" si="25"/>
+        <v>0.13312101910828025</v>
+      </c>
+      <c r="E36" s="28">
+        <f t="shared" si="25"/>
+        <v>7.0098576122672507E-2</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="25"/>
+        <v>1.9364833462432222E-2</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="25"/>
+        <v>-5.6353591160220998E-2</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="25"/>
+        <v>0.14626288659793815</v>
+      </c>
+      <c r="I36" s="28">
+        <f t="shared" si="25"/>
+        <v>0.14274867122247531</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="25"/>
+        <v>-0.22577610536218251</v>
+      </c>
+      <c r="K36" s="28">
+        <f>K21/K20</f>
+        <v>-6.2600321027287326E-2</v>
       </c>
     </row>
   </sheetData>
